--- a/biology/Médecine/Hôpital_universitaire_catholique_Fu-Jen/Hôpital_universitaire_catholique_Fu-Jen.xlsx
+++ b/biology/Médecine/Hôpital_universitaire_catholique_Fu-Jen/Hôpital_universitaire_catholique_Fu-Jen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_catholique_Fu-Jen</t>
+          <t>Hôpital_universitaire_catholique_Fu-Jen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Hôpital universitaire catholique Fu-Jen (en chinois, 天主教輔仁大學附設醫院) est un hôpital à Taishan District, Nouveau Taipei, Taïwan fondé en 2017[1],[2],[3].
-L'hôpital prend la "Mayo Clinic de Taiwan" comme cible de développement[4].
+L'Hôpital universitaire catholique Fu-Jen (en chinois, 天主教輔仁大學附設醫院) est un hôpital à Taishan District, Nouveau Taipei, Taïwan fondé en 2017.
+L'hôpital prend la "Mayo Clinic de Taiwan" comme cible de développement.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_catholique_Fu-Jen</t>
+          <t>Hôpital_universitaire_catholique_Fu-Jen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1990, le Collège de médecine de l'Université catholique Fu-Jen a été créé[5].
-En 2007, la clinique universitaire a été ouverte à Fu-Jen Collège de médecine[6].
-En 2017, l'hôpital universitaire a été établi[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990, le Collège de médecine de l'Université catholique Fu-Jen a été créé.
+En 2007, la clinique universitaire a été ouverte à Fu-Jen Collège de médecine.
+En 2017, l'hôpital universitaire a été établi.
 </t>
         </is>
       </c>
